--- a/app/static/Flu09/overview/abs_modules.xlsx
+++ b/app/static/Flu09/overview/abs_modules.xlsx
@@ -14,15 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>headline</t>
-  </si>
-  <si>
-    <t>Absolute Modules:</t>
+    <t>modul_1</t>
+  </si>
+  <si>
+    <t>modul_2</t>
+  </si>
+  <si>
+    <t>modul_3</t>
+  </si>
+  <si>
+    <t>modul_4</t>
+  </si>
+  <si>
+    <t>modul_5</t>
   </si>
   <si>
     <t>['GCSF', 'IL6', 'IL8', 'MIP1α', 'TGFα', 'TNFα']</t>
@@ -395,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,47 +420,39 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
